--- a/data/top20_ids.xlsx
+++ b/data/top20_ids.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pouls\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kmp95\PycharmProjects\swnt-protein-corona-ML\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{098CC798-2A55-4C5A-8350-F6E64503DA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29742AF0-9CCA-4690-BA27-569494A8FD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{25E2B73B-6875-49E4-B866-601D4851795D}"/>
+    <workbookView xWindow="25080" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{25E2B73B-6875-49E4-B866-601D4851795D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>P02769</t>
   </si>
@@ -98,6 +98,246 @@
   </si>
   <si>
     <t>Accession</t>
+  </si>
+  <si>
+    <t>Q29443</t>
+  </si>
+  <si>
+    <t>Q9TTE1</t>
+  </si>
+  <si>
+    <t>Q58D62</t>
+  </si>
+  <si>
+    <t>Q3MHN5</t>
+  </si>
+  <si>
+    <t>Q3SZ57</t>
+  </si>
+  <si>
+    <t>Q2KJF1</t>
+  </si>
+  <si>
+    <t>Q7SIH1</t>
+  </si>
+  <si>
+    <t>A2I7N3</t>
+  </si>
+  <si>
+    <t>O46375</t>
+  </si>
+  <si>
+    <t>Q3SZR3</t>
+  </si>
+  <si>
+    <t>P15497</t>
+  </si>
+  <si>
+    <t>Q2UVX4</t>
+  </si>
+  <si>
+    <t>Q3SZV7</t>
+  </si>
+  <si>
+    <t>P01017</t>
+  </si>
+  <si>
+    <t>P28800</t>
+  </si>
+  <si>
+    <t>Q3T052</t>
+  </si>
+  <si>
+    <t>P06868</t>
+  </si>
+  <si>
+    <t>P50448</t>
+  </si>
+  <si>
+    <t>Q95121</t>
+  </si>
+  <si>
+    <t>P60712</t>
+  </si>
+  <si>
+    <t>P56652</t>
+  </si>
+  <si>
+    <t>Q3ZC07</t>
+  </si>
+  <si>
+    <t>Q32KY0</t>
+  </si>
+  <si>
+    <t>P02672</t>
+  </si>
+  <si>
+    <t>P01035</t>
+  </si>
+  <si>
+    <t>P17697</t>
+  </si>
+  <si>
+    <t>P02676</t>
+  </si>
+  <si>
+    <t>P07589</t>
+  </si>
+  <si>
+    <t>Q8SPP7</t>
+  </si>
+  <si>
+    <t>Q28065</t>
+  </si>
+  <si>
+    <t>Q5E9Z2</t>
+  </si>
+  <si>
+    <t>P13384</t>
+  </si>
+  <si>
+    <t>P98140</t>
+  </si>
+  <si>
+    <t>Q28107</t>
+  </si>
+  <si>
+    <t>O62644</t>
+  </si>
+  <si>
+    <t>P10096</t>
+  </si>
+  <si>
+    <t>Q2KIG3</t>
+  </si>
+  <si>
+    <t>P12260</t>
+  </si>
+  <si>
+    <t>Q24K22</t>
+  </si>
+  <si>
+    <t>Q2KIV9</t>
+  </si>
+  <si>
+    <t>P07456</t>
+  </si>
+  <si>
+    <t>P04815</t>
+  </si>
+  <si>
+    <t>Q5E9E3</t>
+  </si>
+  <si>
+    <t>Q2TBI0</t>
+  </si>
+  <si>
+    <t>Q3SWW8</t>
+  </si>
+  <si>
+    <t>P68103</t>
+  </si>
+  <si>
+    <t>Q27967</t>
+  </si>
+  <si>
+    <t>Q6R8F2</t>
+  </si>
+  <si>
+    <t>P15467</t>
+  </si>
+  <si>
+    <t>P10152</t>
+  </si>
+  <si>
+    <t>Q5NTB3</t>
+  </si>
+  <si>
+    <t>P82943</t>
+  </si>
+  <si>
+    <t>P39873</t>
+  </si>
+  <si>
+    <t>P81948</t>
+  </si>
+  <si>
+    <t>Q0VCX1</t>
+  </si>
+  <si>
+    <t>P22226</t>
+  </si>
+  <si>
+    <t>P49907</t>
+  </si>
+  <si>
+    <t>P07507</t>
+  </si>
+  <si>
+    <t>Q0VCP3</t>
+  </si>
+  <si>
+    <t>Q05716</t>
+  </si>
+  <si>
+    <t>Q5E9H0</t>
+  </si>
+  <si>
+    <t>P20959</t>
+  </si>
+  <si>
+    <t>P24627</t>
+  </si>
+  <si>
+    <t>Q3T054</t>
+  </si>
+  <si>
+    <t>Q05717</t>
+  </si>
+  <si>
+    <t>Q3T0A3</t>
+  </si>
+  <si>
+    <t>Q5E9F7</t>
+  </si>
+  <si>
+    <t>Q05718</t>
+  </si>
+  <si>
+    <t>P81947</t>
+  </si>
+  <si>
+    <t>Q9GLX9</t>
+  </si>
+  <si>
+    <t>Q27972</t>
+  </si>
+  <si>
+    <t>P79121</t>
+  </si>
+  <si>
+    <t>P54228</t>
+  </si>
+  <si>
+    <t>Q3MHM5</t>
+  </si>
+  <si>
+    <t>P80929</t>
+  </si>
+  <si>
+    <t>Q2HJ49</t>
+  </si>
+  <si>
+    <t>P24591</t>
+  </si>
+  <si>
+    <t>P12799</t>
+  </si>
+  <si>
+    <t>P61223</t>
+  </si>
+  <si>
+    <t>Q32LP0</t>
   </si>
 </sst>
 </file>
@@ -136,7 +376,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
       <right/>
       <top style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -468,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{796F9E15-65FA-4B69-8E3B-F1E8C08772A8}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +826,406 @@
         <v>19</v>
       </c>
     </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
